--- a/Hasil Cluster.xlsx
+++ b/Hasil Cluster.xlsx
@@ -571,7 +571,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -588,7 +588,7 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>2.426</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -639,7 +639,7 @@
         <v>2.682</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>2.682</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>2.426</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>2.278</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -724,7 +724,7 @@
         <v>2.608</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -741,7 +741,7 @@
         <v>2.426</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +758,7 @@
         <v>2.352</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -792,7 +792,7 @@
         <v>2.5</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -809,7 +809,7 @@
         <v>2.682</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -826,7 +826,7 @@
         <v>2.682</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>2.352</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +860,7 @@
         <v>2.682</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -877,7 +877,7 @@
         <v>2.426</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -894,7 +894,7 @@
         <v>2.682</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -945,7 +945,7 @@
         <v>2.426</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -979,7 +979,7 @@
         <v>2.426</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1013,7 +1013,7 @@
         <v>3.016</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>3.09</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1047,7 +1047,7 @@
         <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1064,7 +1064,7 @@
         <v>2.608</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1081,7 +1081,7 @@
         <v>2.352</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1098,7 +1098,7 @@
         <v>2.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1115,7 +1115,7 @@
         <v>2.426</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1132,7 +1132,7 @@
         <v>2.608</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1149,7 +1149,7 @@
         <v>2.426</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1166,7 +1166,7 @@
         <v>2.682</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1183,7 +1183,7 @@
         <v>2.682</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1200,7 +1200,7 @@
         <v>2.608</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1234,7 +1234,7 @@
         <v>2.5</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>2.682</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1268,7 +1268,7 @@
         <v>2.352</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1285,7 +1285,7 @@
         <v>2.938</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1302,7 +1302,7 @@
         <v>2.426</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1336,7 +1336,7 @@
         <v>2.5</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1353,7 +1353,7 @@
         <v>2.5</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1370,7 +1370,7 @@
         <v>2.426</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1387,7 +1387,7 @@
         <v>2.278</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1404,7 +1404,7 @@
         <v>3.272</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1421,7 +1421,7 @@
         <v>2.426</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1438,7 +1438,7 @@
         <v>2.5</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1455,7 +1455,7 @@
         <v>2.352</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1472,7 +1472,7 @@
         <v>2.426</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1489,7 +1489,7 @@
         <v>2.608</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1506,7 @@
         <v>2.352</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1557,7 +1557,7 @@
         <v>2.608</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>2.352</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>3.679</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1608,7 +1608,7 @@
         <v>2.352</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>2.5</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1642,7 @@
         <v>2.682</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1676,7 +1676,7 @@
         <v>2.426</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1693,7 +1693,7 @@
         <v>2.426</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1710,7 +1710,7 @@
         <v>2.5</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1761,7 +1761,7 @@
         <v>2.278</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>2.5</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1863,7 +1863,7 @@
         <v>2.608</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1897,7 +1897,7 @@
         <v>2.83</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1914,7 +1914,7 @@
         <v>2.426</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1931,7 +1931,7 @@
         <v>2.426</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1948,7 +1948,7 @@
         <v>2.608</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1965,7 +1965,7 @@
         <v>2.5</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +1982,7 @@
         <v>2.682</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2016,7 +2016,7 @@
         <v>3.09</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2050,7 +2050,7 @@
         <v>2.426</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -2067,7 +2067,7 @@
         <v>2.5</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2084,7 +2084,7 @@
         <v>2.426</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -2118,7 +2118,7 @@
         <v>2.352</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2186,7 +2186,7 @@
         <v>2.352</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2203,7 +2203,7 @@
         <v>2.5</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2237,7 +2237,7 @@
         <v>2.682</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2254,7 +2254,7 @@
         <v>2.426</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2271,7 +2271,7 @@
         <v>2.5</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2288,7 +2288,7 @@
         <v>3.531</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2373,7 +2373,7 @@
         <v>2.352</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2390,7 +2390,7 @@
         <v>2.352</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2424,7 +2424,7 @@
         <v>2.608</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2441,7 +2441,7 @@
         <v>2.756</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2458,7 +2458,7 @@
         <v>2.5</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2475,7 +2475,7 @@
         <v>2.5</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -2492,7 +2492,7 @@
         <v>2.352</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -2509,7 +2509,7 @@
         <v>2.5</v>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2560,7 +2560,7 @@
         <v>2.5</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2577,7 +2577,7 @@
         <v>2.352</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -2594,7 +2594,7 @@
         <v>2.352</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -2611,7 +2611,7 @@
         <v>2.5</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2628,7 +2628,7 @@
         <v>2.608</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2662,7 +2662,7 @@
         <v>2.426</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2713,7 +2713,7 @@
         <v>2.426</v>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2730,7 +2730,7 @@
         <v>2.426</v>
       </c>
       <c r="E135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -2764,7 +2764,7 @@
         <v>2.608</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -2798,7 +2798,7 @@
         <v>2.5</v>
       </c>
       <c r="E139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2815,7 +2815,7 @@
         <v>2.426</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2832,7 +2832,7 @@
         <v>2.426</v>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -2849,7 +2849,7 @@
         <v>2.352</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -2866,7 +2866,7 @@
         <v>3.016</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2883,7 +2883,7 @@
         <v>2.5</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2900,7 +2900,7 @@
         <v>2.5</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2934,7 +2934,7 @@
         <v>2.5</v>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2951,7 +2951,7 @@
         <v>2.608</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2985,7 +2985,7 @@
         <v>2.5</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3002,7 +3002,7 @@
         <v>2.352</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -3053,7 +3053,7 @@
         <v>2.5</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -3070,7 +3070,7 @@
         <v>2.352</v>
       </c>
       <c r="E155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3087,7 +3087,7 @@
         <v>2.352</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -3104,7 +3104,7 @@
         <v>1.762</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -3121,7 +3121,7 @@
         <v>2.608</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3138,7 +3138,7 @@
         <v>2.278</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160">
@@ -3155,7 +3155,7 @@
         <v>2.5</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3172,7 +3172,7 @@
         <v>2.5</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3189,7 +3189,7 @@
         <v>2.426</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -3206,7 +3206,7 @@
         <v>2.426</v>
       </c>
       <c r="E163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3223,7 +3223,7 @@
         <v>2.5</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3240,7 +3240,7 @@
         <v>2.5</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3257,7 +3257,7 @@
         <v>2.682</v>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3274,7 +3274,7 @@
         <v>2.352</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -3291,7 +3291,7 @@
         <v>2.352</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3308,7 +3308,7 @@
         <v>2.5</v>
       </c>
       <c r="E169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3325,7 +3325,7 @@
         <v>2.5</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3342,7 +3342,7 @@
         <v>2.756</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3393,7 +3393,7 @@
         <v>2.5</v>
       </c>
       <c r="E174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -3410,7 +3410,7 @@
         <v>2.352</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -3427,7 +3427,7 @@
         <v>2.352</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -3461,7 +3461,7 @@
         <v>2.83</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3512,7 +3512,7 @@
         <v>2.83</v>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3563,7 +3563,7 @@
         <v>2.426</v>
       </c>
       <c r="E184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -3614,7 +3614,7 @@
         <v>3.198</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -3631,7 +3631,7 @@
         <v>3.42</v>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -3648,7 +3648,7 @@
         <v>2.426</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -3699,7 +3699,7 @@
         <v>2.608</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3716,7 +3716,7 @@
         <v>2.83</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -3818,7 +3818,7 @@
         <v>2.5</v>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -3835,7 +3835,7 @@
         <v>2.5</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -3852,7 +3852,7 @@
         <v>2.352</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3869,7 +3869,7 @@
         <v>2.83</v>
       </c>
       <c r="E202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -3886,7 +3886,7 @@
         <v>2.5</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -3903,7 +3903,7 @@
         <v>2.426</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3920,7 +3920,7 @@
         <v>2.608</v>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -3937,7 +3937,7 @@
         <v>2.426</v>
       </c>
       <c r="E206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -3954,7 +3954,7 @@
         <v>2.352</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -3971,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -3988,7 +3988,7 @@
         <v>2.352</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -4022,7 +4022,7 @@
         <v>2.352</v>
       </c>
       <c r="E211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4039,7 +4039,7 @@
         <v>2.352</v>
       </c>
       <c r="E212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4090,7 +4090,7 @@
         <v>2.278</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -4124,7 +4124,7 @@
         <v>2.352</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -4158,7 +4158,7 @@
         <v>2.5</v>
       </c>
       <c r="E219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -4175,7 +4175,7 @@
         <v>2.682</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4192,7 +4192,7 @@
         <v>2.5</v>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -4209,7 +4209,7 @@
         <v>2.352</v>
       </c>
       <c r="E222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -4226,7 +4226,7 @@
         <v>2.426</v>
       </c>
       <c r="E223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -4243,7 +4243,7 @@
         <v>2.426</v>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -4260,7 +4260,7 @@
         <v>3.09</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -4294,7 +4294,7 @@
         <v>2.426</v>
       </c>
       <c r="E227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -4311,7 +4311,7 @@
         <v>2.426</v>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -4328,7 +4328,7 @@
         <v>2.5</v>
       </c>
       <c r="E229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -4345,7 +4345,7 @@
         <v>2.5</v>
       </c>
       <c r="E230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -4362,7 +4362,7 @@
         <v>2.5</v>
       </c>
       <c r="E231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -4379,7 +4379,7 @@
         <v>2.352</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -4396,7 +4396,7 @@
         <v>2.352</v>
       </c>
       <c r="E233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -4413,7 +4413,7 @@
         <v>2.682</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -4430,7 +4430,7 @@
         <v>2.942</v>
       </c>
       <c r="E235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4447,7 +4447,7 @@
         <v>2.278</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -4464,7 +4464,7 @@
         <v>1.91</v>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -4481,7 +4481,7 @@
         <v>2.682</v>
       </c>
       <c r="E238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -4498,7 +4498,7 @@
         <v>2.608</v>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -4515,7 +4515,7 @@
         <v>2.5</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -4532,7 +4532,7 @@
         <v>2.352</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -4566,7 +4566,7 @@
         <v>2.352</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -4583,7 +4583,7 @@
         <v>3.09</v>
       </c>
       <c r="E244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -4617,7 +4617,7 @@
         <v>2.426</v>
       </c>
       <c r="E246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4634,7 +4634,7 @@
         <v>2.608</v>
       </c>
       <c r="E247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -4651,7 +4651,7 @@
         <v>2.5</v>
       </c>
       <c r="E248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -4719,7 +4719,7 @@
         <v>2.5</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -4736,7 +4736,7 @@
         <v>2.5</v>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -4753,7 +4753,7 @@
         <v>2.5</v>
       </c>
       <c r="E254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -4787,7 +4787,7 @@
         <v>2.426</v>
       </c>
       <c r="E256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -4804,7 +4804,7 @@
         <v>2.608</v>
       </c>
       <c r="E257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -4872,7 +4872,7 @@
         <v>2.608</v>
       </c>
       <c r="E261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -4889,7 +4889,7 @@
         <v>2.426</v>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -4906,7 +4906,7 @@
         <v>2.352</v>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -4923,7 +4923,7 @@
         <v>2.682</v>
       </c>
       <c r="E264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -4940,7 +4940,7 @@
         <v>2.5</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -4974,7 +4974,7 @@
         <v>2.5</v>
       </c>
       <c r="E267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4991,7 +4991,7 @@
         <v>3.198</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -5008,7 +5008,7 @@
         <v>2.426</v>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -5025,7 +5025,7 @@
         <v>2.278</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -5059,7 +5059,7 @@
         <v>2.426</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -5076,7 +5076,7 @@
         <v>2.756</v>
       </c>
       <c r="E273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -5093,7 +5093,7 @@
         <v>2.426</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -5110,7 +5110,7 @@
         <v>2.352</v>
       </c>
       <c r="E275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -5127,7 +5127,7 @@
         <v>2.5</v>
       </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -5144,7 +5144,7 @@
         <v>2.5</v>
       </c>
       <c r="E277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -5195,7 +5195,7 @@
         <v>2.352</v>
       </c>
       <c r="E280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -5212,7 +5212,7 @@
         <v>2.5</v>
       </c>
       <c r="E281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -5280,7 +5280,7 @@
         <v>2.682</v>
       </c>
       <c r="E285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -5297,7 +5297,7 @@
         <v>2.5</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -5314,7 +5314,7 @@
         <v>2.5</v>
       </c>
       <c r="E287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -5331,7 +5331,7 @@
         <v>2.5</v>
       </c>
       <c r="E288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -5348,7 +5348,7 @@
         <v>2.5</v>
       </c>
       <c r="E289" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -5433,7 +5433,7 @@
         <v>2.5</v>
       </c>
       <c r="E294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -5450,7 +5450,7 @@
         <v>2.608</v>
       </c>
       <c r="E295" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -5501,7 +5501,7 @@
         <v>2.608</v>
       </c>
       <c r="E298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -5518,7 +5518,7 @@
         <v>2.5</v>
       </c>
       <c r="E299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -5535,7 +5535,7 @@
         <v>2.352</v>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -5552,7 +5552,7 @@
         <v>2.682</v>
       </c>
       <c r="E301" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -5603,7 +5603,7 @@
         <v>2.5</v>
       </c>
       <c r="E304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -5637,7 +5637,7 @@
         <v>2.5</v>
       </c>
       <c r="E306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -5654,7 +5654,7 @@
         <v>2.5</v>
       </c>
       <c r="E307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -5688,7 +5688,7 @@
         <v>2.5</v>
       </c>
       <c r="E309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -5722,7 +5722,7 @@
         <v>2.426</v>
       </c>
       <c r="E311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -5739,7 +5739,7 @@
         <v>2.5</v>
       </c>
       <c r="E312" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -5756,7 +5756,7 @@
         <v>2.608</v>
       </c>
       <c r="E313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -5773,7 +5773,7 @@
         <v>2.5</v>
       </c>
       <c r="E314" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -5790,7 +5790,7 @@
         <v>2.682</v>
       </c>
       <c r="E315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5807,7 +5807,7 @@
         <v>2.5</v>
       </c>
       <c r="E316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -5824,7 +5824,7 @@
         <v>2.352</v>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -5858,7 +5858,7 @@
         <v>2.608</v>
       </c>
       <c r="E319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -5875,7 +5875,7 @@
         <v>2.83</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -5892,7 +5892,7 @@
         <v>2.426</v>
       </c>
       <c r="E321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -5943,7 +5943,7 @@
         <v>2.83</v>
       </c>
       <c r="E324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -5960,7 +5960,7 @@
         <v>2.608</v>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5994,7 +5994,7 @@
         <v>2.426</v>
       </c>
       <c r="E327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -6011,7 +6011,7 @@
         <v>2.83</v>
       </c>
       <c r="E328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -6028,7 +6028,7 @@
         <v>2.682</v>
       </c>
       <c r="E329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -6062,7 +6062,7 @@
         <v>2.5</v>
       </c>
       <c r="E331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -6096,7 +6096,7 @@
         <v>2.352</v>
       </c>
       <c r="E333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -6130,7 +6130,7 @@
         <v>2.682</v>
       </c>
       <c r="E335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -6164,7 +6164,7 @@
         <v>2.5</v>
       </c>
       <c r="E337" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="E338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -6198,7 +6198,7 @@
         <v>2.5</v>
       </c>
       <c r="E339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -6215,7 +6215,7 @@
         <v>2.608</v>
       </c>
       <c r="E340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -6283,7 +6283,7 @@
         <v>2.756</v>
       </c>
       <c r="E344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -6351,7 +6351,7 @@
         <v>2.608</v>
       </c>
       <c r="E348" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -6368,7 +6368,7 @@
         <v>2.83</v>
       </c>
       <c r="E349" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -6385,7 +6385,7 @@
         <v>2.682</v>
       </c>
       <c r="E350" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -6470,7 +6470,7 @@
         <v>2.608</v>
       </c>
       <c r="E355" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -6521,7 +6521,7 @@
         <v>2.83</v>
       </c>
       <c r="E358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -6538,7 +6538,7 @@
         <v>2.5</v>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -6555,7 +6555,7 @@
         <v>2.352</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -6572,7 +6572,7 @@
         <v>2.5</v>
       </c>
       <c r="E361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -6589,7 +6589,7 @@
         <v>2.5</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -6657,7 +6657,7 @@
         <v>2.756</v>
       </c>
       <c r="E366" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -6674,7 +6674,7 @@
         <v>2.352</v>
       </c>
       <c r="E367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -6691,7 +6691,7 @@
         <v>2.352</v>
       </c>
       <c r="E368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -6708,7 +6708,7 @@
         <v>2.608</v>
       </c>
       <c r="E369" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -6742,7 +6742,7 @@
         <v>2.5</v>
       </c>
       <c r="E371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -6759,7 +6759,7 @@
         <v>2.5</v>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -6776,7 +6776,7 @@
         <v>2.608</v>
       </c>
       <c r="E373" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -6844,7 +6844,7 @@
         <v>2.278</v>
       </c>
       <c r="E377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -6878,7 +6878,7 @@
         <v>2.682</v>
       </c>
       <c r="E379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -6912,7 +6912,7 @@
         <v>2.352</v>
       </c>
       <c r="E381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -6946,7 +6946,7 @@
         <v>2.5</v>
       </c>
       <c r="E383" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -6963,7 +6963,7 @@
         <v>2.682</v>
       </c>
       <c r="E384" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -7031,7 +7031,7 @@
         <v>2.352</v>
       </c>
       <c r="E388" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -7048,7 +7048,7 @@
         <v>2.608</v>
       </c>
       <c r="E389" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -7065,7 +7065,7 @@
         <v>2.608</v>
       </c>
       <c r="E390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -7082,7 +7082,7 @@
         <v>2.682</v>
       </c>
       <c r="E391" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -7099,7 +7099,7 @@
         <v>2.682</v>
       </c>
       <c r="E392" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -7116,7 +7116,7 @@
         <v>2.352</v>
       </c>
       <c r="E393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -7133,7 +7133,7 @@
         <v>2.352</v>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -7150,7 +7150,7 @@
         <v>2.352</v>
       </c>
       <c r="E395" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -7167,7 +7167,7 @@
         <v>2.5</v>
       </c>
       <c r="E396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -7184,7 +7184,7 @@
         <v>2.608</v>
       </c>
       <c r="E397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -7201,7 +7201,7 @@
         <v>2.608</v>
       </c>
       <c r="E398" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -7218,7 +7218,7 @@
         <v>2.5</v>
       </c>
       <c r="E399" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -7269,7 +7269,7 @@
         <v>2.682</v>
       </c>
       <c r="E402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -7286,7 +7286,7 @@
         <v>2.756</v>
       </c>
       <c r="E403" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -7303,7 +7303,7 @@
         <v>2.426</v>
       </c>
       <c r="E404" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -7354,7 +7354,7 @@
         <v>2.352</v>
       </c>
       <c r="E407" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -7371,7 +7371,7 @@
         <v>2.5</v>
       </c>
       <c r="E408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -7405,7 +7405,7 @@
         <v>2.938</v>
       </c>
       <c r="E410" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -7422,7 +7422,7 @@
         <v>2.426</v>
       </c>
       <c r="E411" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -7456,7 +7456,7 @@
         <v>2.756</v>
       </c>
       <c r="E413" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -7473,7 +7473,7 @@
         <v>2.608</v>
       </c>
       <c r="E414" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -7490,7 +7490,7 @@
         <v>2.756</v>
       </c>
       <c r="E415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -7507,7 +7507,7 @@
         <v>2.426</v>
       </c>
       <c r="E416" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -7558,7 +7558,7 @@
         <v>2.608</v>
       </c>
       <c r="E419" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -7575,7 +7575,7 @@
         <v>2.608</v>
       </c>
       <c r="E420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -7609,7 +7609,7 @@
         <v>2.5</v>
       </c>
       <c r="E422" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -7626,7 +7626,7 @@
         <v>2.682</v>
       </c>
       <c r="E423" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -7643,7 +7643,7 @@
         <v>2.756</v>
       </c>
       <c r="E424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -7660,7 +7660,7 @@
         <v>2.5</v>
       </c>
       <c r="E425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -7677,7 +7677,7 @@
         <v>2.5</v>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -7694,7 +7694,7 @@
         <v>2.682</v>
       </c>
       <c r="E427" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -7711,7 +7711,7 @@
         <v>2.5</v>
       </c>
       <c r="E428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -7728,7 +7728,7 @@
         <v>2.608</v>
       </c>
       <c r="E429" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -7745,7 +7745,7 @@
         <v>2.352</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -7762,7 +7762,7 @@
         <v>2.608</v>
       </c>
       <c r="E431" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -7779,7 +7779,7 @@
         <v>2.5</v>
       </c>
       <c r="E432" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -7796,7 +7796,7 @@
         <v>2.756</v>
       </c>
       <c r="E433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -7813,7 +7813,7 @@
         <v>2.426</v>
       </c>
       <c r="E434" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -7830,7 +7830,7 @@
         <v>2.5</v>
       </c>
       <c r="E435" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -7847,7 +7847,7 @@
         <v>2.5</v>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -7864,7 +7864,7 @@
         <v>2.426</v>
       </c>
       <c r="E437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -7881,7 +7881,7 @@
         <v>2.608</v>
       </c>
       <c r="E438" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -7898,7 +7898,7 @@
         <v>2.426</v>
       </c>
       <c r="E439" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -7915,7 +7915,7 @@
         <v>2.756</v>
       </c>
       <c r="E440" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -7932,7 +7932,7 @@
         <v>2.608</v>
       </c>
       <c r="E441" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -7983,7 +7983,7 @@
         <v>2.682</v>
       </c>
       <c r="E444" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -8000,7 +8000,7 @@
         <v>2.608</v>
       </c>
       <c r="E445" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -8017,7 +8017,7 @@
         <v>2.5</v>
       </c>
       <c r="E446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -8085,7 +8085,7 @@
         <v>2.5</v>
       </c>
       <c r="E450" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -8102,7 +8102,7 @@
         <v>2.352</v>
       </c>
       <c r="E451" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -8136,7 +8136,7 @@
         <v>2.5</v>
       </c>
       <c r="E453" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -8153,7 +8153,7 @@
         <v>2.426</v>
       </c>
       <c r="E454" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -8204,7 +8204,7 @@
         <v>2.426</v>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -8238,7 +8238,7 @@
         <v>2.426</v>
       </c>
       <c r="E459" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -8255,7 +8255,7 @@
         <v>2.426</v>
       </c>
       <c r="E460" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -8272,7 +8272,7 @@
         <v>2.682</v>
       </c>
       <c r="E461" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -8289,7 +8289,7 @@
         <v>2.352</v>
       </c>
       <c r="E462" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -8306,7 +8306,7 @@
         <v>2.5</v>
       </c>
       <c r="E463" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -8340,7 +8340,7 @@
         <v>2.756</v>
       </c>
       <c r="E465" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -8357,7 +8357,7 @@
         <v>2.426</v>
       </c>
       <c r="E466" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -8374,7 +8374,7 @@
         <v>2.83</v>
       </c>
       <c r="E467" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -8391,7 +8391,7 @@
         <v>2.682</v>
       </c>
       <c r="E468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -8408,7 +8408,7 @@
         <v>2.5</v>
       </c>
       <c r="E469" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -8425,7 +8425,7 @@
         <v>2.426</v>
       </c>
       <c r="E470" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -8442,7 +8442,7 @@
         <v>2.5</v>
       </c>
       <c r="E471" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -8476,7 +8476,7 @@
         <v>2.5</v>
       </c>
       <c r="E473" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -8510,7 +8510,7 @@
         <v>2.426</v>
       </c>
       <c r="E475" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -8527,7 +8527,7 @@
         <v>2.608</v>
       </c>
       <c r="E476" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Hasil Cluster.xlsx
+++ b/Hasil Cluster.xlsx
@@ -469,7 +469,7 @@
         <v>3.602</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>4.08</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>2.682</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         <v>2.938</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         <v>3.269</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>3.012</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -571,7 +571,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -588,7 +588,7 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>2.426</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -622,7 +622,7 @@
         <v>2.83</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -639,7 +639,7 @@
         <v>2.682</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +656,7 @@
         <v>2.682</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -673,7 +673,7 @@
         <v>2.426</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>2.278</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -707,7 +707,7 @@
         <v>2.83</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         <v>2.608</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -741,7 +741,7 @@
         <v>2.426</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -758,7 +758,7 @@
         <v>2.352</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -792,7 +792,7 @@
         <v>2.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -809,7 +809,7 @@
         <v>2.682</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -826,7 +826,7 @@
         <v>2.682</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>2.352</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +860,7 @@
         <v>2.682</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -877,7 +877,7 @@
         <v>2.426</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -894,7 +894,7 @@
         <v>2.682</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -911,7 +911,7 @@
         <v>3.342</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -928,7 +928,7 @@
         <v>2.682</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -945,7 +945,7 @@
         <v>2.426</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -962,7 +962,7 @@
         <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -979,7 +979,7 @@
         <v>2.426</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -996,7 +996,7 @@
         <v>3.09</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1013,7 +1013,7 @@
         <v>3.016</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1030,7 +1030,7 @@
         <v>3.09</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1047,7 +1047,7 @@
         <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1064,7 +1064,7 @@
         <v>2.608</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1081,7 +1081,7 @@
         <v>2.352</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1098,7 +1098,7 @@
         <v>2.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1115,7 +1115,7 @@
         <v>2.426</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1132,7 +1132,7 @@
         <v>2.608</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1149,7 +1149,7 @@
         <v>2.426</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1166,7 +1166,7 @@
         <v>2.682</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1183,7 +1183,7 @@
         <v>2.682</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1200,7 +1200,7 @@
         <v>2.608</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1217,7 +1217,7 @@
         <v>3.012</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1234,7 +1234,7 @@
         <v>2.5</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1251,7 +1251,7 @@
         <v>2.682</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1268,7 +1268,7 @@
         <v>2.352</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1285,7 +1285,7 @@
         <v>2.938</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1302,7 +1302,7 @@
         <v>2.426</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1319,7 +1319,7 @@
         <v>2.756</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1336,7 +1336,7 @@
         <v>2.5</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1353,7 +1353,7 @@
         <v>2.5</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1370,7 +1370,7 @@
         <v>2.426</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1387,7 +1387,7 @@
         <v>2.278</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1404,7 +1404,7 @@
         <v>3.272</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1421,7 +1421,7 @@
         <v>2.426</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1438,7 +1438,7 @@
         <v>2.5</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1455,7 +1455,7 @@
         <v>2.352</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1472,7 +1472,7 @@
         <v>2.426</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1489,7 +1489,7 @@
         <v>2.608</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1506,7 +1506,7 @@
         <v>2.352</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1523,7 +1523,7 @@
         <v>2.608</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1540,7 +1540,7 @@
         <v>2.682</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1557,7 +1557,7 @@
         <v>2.608</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1574,7 +1574,7 @@
         <v>2.352</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1591,7 +1591,7 @@
         <v>3.679</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1608,7 +1608,7 @@
         <v>2.352</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         <v>2.5</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1642,7 @@
         <v>2.682</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -1659,7 +1659,7 @@
         <v>2.682</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1676,7 +1676,7 @@
         <v>2.426</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1693,7 +1693,7 @@
         <v>2.426</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1710,7 +1710,7 @@
         <v>2.5</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1727,7 +1727,7 @@
         <v>2.682</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1744,7 +1744,7 @@
         <v>4.519</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1761,7 +1761,7 @@
         <v>2.278</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +1778,7 @@
         <v>2.5</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -1795,7 +1795,7 @@
         <v>4.118</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1812,7 +1812,7 @@
         <v>2.938</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1829,7 +1829,7 @@
         <v>2.756</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1846,7 +1846,7 @@
         <v>2.682</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1863,7 +1863,7 @@
         <v>2.608</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -1880,7 +1880,7 @@
         <v>2.682</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1897,7 +1897,7 @@
         <v>2.83</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -1914,7 +1914,7 @@
         <v>2.426</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1931,7 +1931,7 @@
         <v>2.426</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -1948,7 +1948,7 @@
         <v>2.608</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1965,7 +1965,7 @@
         <v>2.5</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -1982,7 +1982,7 @@
         <v>2.682</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -1999,7 +1999,7 @@
         <v>5.256</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2016,7 +2016,7 @@
         <v>3.09</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2033,7 +2033,7 @@
         <v>2.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2050,7 +2050,7 @@
         <v>2.426</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2067,7 +2067,7 @@
         <v>2.5</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2084,7 +2084,7 @@
         <v>2.426</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2101,7 +2101,7 @@
         <v>2.608</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2118,7 +2118,7 @@
         <v>2.352</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2135,7 +2135,7 @@
         <v>2.608</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2152,7 +2152,7 @@
         <v>3.42</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2169,7 +2169,7 @@
         <v>3.272</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2186,7 +2186,7 @@
         <v>2.352</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2203,7 +2203,7 @@
         <v>2.5</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2220,7 +2220,7 @@
         <v>2.756</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2237,7 +2237,7 @@
         <v>2.682</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2254,7 +2254,7 @@
         <v>2.426</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2271,7 +2271,7 @@
         <v>2.5</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2288,7 +2288,7 @@
         <v>3.531</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2305,7 +2305,7 @@
         <v>3.198</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2322,7 +2322,7 @@
         <v>2.5</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2339,7 +2339,7 @@
         <v>2.682</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2356,7 +2356,7 @@
         <v>2.83</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2373,7 +2373,7 @@
         <v>2.352</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2390,7 +2390,7 @@
         <v>2.352</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2407,7 +2407,7 @@
         <v>2.83</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -2424,7 +2424,7 @@
         <v>2.608</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2441,7 +2441,7 @@
         <v>2.756</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2458,7 +2458,7 @@
         <v>2.5</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2475,7 +2475,7 @@
         <v>2.5</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2492,7 +2492,7 @@
         <v>2.352</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2509,7 +2509,7 @@
         <v>2.5</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -2526,7 +2526,7 @@
         <v>2.682</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -2543,7 +2543,7 @@
         <v>2.938</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2560,7 +2560,7 @@
         <v>2.5</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -2577,7 +2577,7 @@
         <v>2.352</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2594,7 +2594,7 @@
         <v>2.352</v>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2611,7 +2611,7 @@
         <v>2.5</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2628,7 +2628,7 @@
         <v>2.608</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2645,7 +2645,7 @@
         <v>2.83</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -2662,7 +2662,7 @@
         <v>2.426</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2679,7 +2679,7 @@
         <v>2.608</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2696,7 +2696,7 @@
         <v>2.83</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2713,7 +2713,7 @@
         <v>2.426</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2730,7 +2730,7 @@
         <v>2.426</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2747,7 +2747,7 @@
         <v>2.426</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -2764,7 +2764,7 @@
         <v>2.608</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -2781,7 +2781,7 @@
         <v>3.75</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -2798,7 +2798,7 @@
         <v>2.5</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -2815,7 +2815,7 @@
         <v>2.426</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -2832,7 +2832,7 @@
         <v>2.426</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -2849,7 +2849,7 @@
         <v>2.352</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2866,7 +2866,7 @@
         <v>3.016</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -2883,7 +2883,7 @@
         <v>2.5</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -2900,7 +2900,7 @@
         <v>2.5</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -2917,7 +2917,7 @@
         <v>2.682</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2934,7 +2934,7 @@
         <v>2.5</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -2951,7 +2951,7 @@
         <v>2.608</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -2968,7 +2968,7 @@
         <v>2.938</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2985,7 +2985,7 @@
         <v>2.5</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3002,7 +3002,7 @@
         <v>2.352</v>
       </c>
       <c r="E151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3019,7 +3019,7 @@
         <v>2.5</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3036,7 +3036,7 @@
         <v>2.756</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3053,7 +3053,7 @@
         <v>2.5</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3070,7 +3070,7 @@
         <v>2.352</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3087,7 +3087,7 @@
         <v>2.352</v>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3104,7 +3104,7 @@
         <v>1.762</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3121,7 +3121,7 @@
         <v>2.608</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3138,7 +3138,7 @@
         <v>2.278</v>
       </c>
       <c r="E159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3155,7 +3155,7 @@
         <v>2.5</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3172,7 +3172,7 @@
         <v>2.5</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3189,7 +3189,7 @@
         <v>2.426</v>
       </c>
       <c r="E162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3206,7 +3206,7 @@
         <v>2.426</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -3223,7 +3223,7 @@
         <v>2.5</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -3240,7 +3240,7 @@
         <v>2.5</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3257,7 +3257,7 @@
         <v>2.682</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3274,7 +3274,7 @@
         <v>2.352</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3291,7 +3291,7 @@
         <v>2.352</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3308,7 +3308,7 @@
         <v>2.5</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3325,7 +3325,7 @@
         <v>2.5</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -3342,7 +3342,7 @@
         <v>2.756</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3359,7 +3359,7 @@
         <v>2.682</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3376,7 +3376,7 @@
         <v>2.83</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3393,7 +3393,7 @@
         <v>2.5</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -3410,7 +3410,7 @@
         <v>2.352</v>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3427,7 +3427,7 @@
         <v>2.352</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3444,7 +3444,7 @@
         <v>2.756</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -3461,7 +3461,7 @@
         <v>2.83</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -3478,7 +3478,7 @@
         <v>2.682</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3495,7 +3495,7 @@
         <v>3.676</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -3512,7 +3512,7 @@
         <v>2.83</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3529,7 +3529,7 @@
         <v>3.198</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -3546,7 +3546,7 @@
         <v>3.528</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3563,7 +3563,7 @@
         <v>2.426</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3580,7 +3580,7 @@
         <v>4.596</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -3597,7 +3597,7 @@
         <v>3.528</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -3614,7 +3614,7 @@
         <v>3.198</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3631,7 +3631,7 @@
         <v>3.42</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -3648,7 +3648,7 @@
         <v>2.426</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3665,7 +3665,7 @@
         <v>5.59</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -3682,7 +3682,7 @@
         <v>2.608</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3699,7 +3699,7 @@
         <v>2.608</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -3716,7 +3716,7 @@
         <v>2.83</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -3733,7 +3733,7 @@
         <v>2.938</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -3750,7 +3750,7 @@
         <v>6.365</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -3767,7 +3767,7 @@
         <v>5.442</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -3784,7 +3784,7 @@
         <v>4.448</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3801,7 +3801,7 @@
         <v>8.198</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -3818,7 +3818,7 @@
         <v>2.5</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -3835,7 +3835,7 @@
         <v>2.5</v>
       </c>
       <c r="E200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3852,7 +3852,7 @@
         <v>2.352</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -3869,7 +3869,7 @@
         <v>2.83</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -3886,7 +3886,7 @@
         <v>2.5</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -3903,7 +3903,7 @@
         <v>2.426</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3920,7 +3920,7 @@
         <v>2.608</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -3937,7 +3937,7 @@
         <v>2.426</v>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -3954,7 +3954,7 @@
         <v>2.352</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -3971,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -3988,7 +3988,7 @@
         <v>2.352</v>
       </c>
       <c r="E209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4005,7 +4005,7 @@
         <v>2.682</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4022,7 +4022,7 @@
         <v>2.352</v>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -4039,7 +4039,7 @@
         <v>2.352</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -4056,7 +4056,7 @@
         <v>2.83</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4073,7 +4073,7 @@
         <v>2.938</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -4090,7 +4090,7 @@
         <v>2.278</v>
       </c>
       <c r="E215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4107,7 +4107,7 @@
         <v>3.602</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -4124,7 +4124,7 @@
         <v>2.352</v>
       </c>
       <c r="E217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -4141,7 +4141,7 @@
         <v>2.5</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4158,7 +4158,7 @@
         <v>2.5</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -4175,7 +4175,7 @@
         <v>2.682</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -4192,7 +4192,7 @@
         <v>2.5</v>
       </c>
       <c r="E221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -4209,7 +4209,7 @@
         <v>2.352</v>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -4226,7 +4226,7 @@
         <v>2.426</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -4243,7 +4243,7 @@
         <v>2.426</v>
       </c>
       <c r="E224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4260,7 +4260,7 @@
         <v>3.09</v>
       </c>
       <c r="E225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4277,7 +4277,7 @@
         <v>4.74</v>
       </c>
       <c r="E226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -4294,7 +4294,7 @@
         <v>2.426</v>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -4311,7 +4311,7 @@
         <v>2.426</v>
       </c>
       <c r="E228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4328,7 +4328,7 @@
         <v>2.5</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -4345,7 +4345,7 @@
         <v>2.5</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -4362,7 +4362,7 @@
         <v>2.5</v>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -4379,7 +4379,7 @@
         <v>2.352</v>
       </c>
       <c r="E232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4396,7 +4396,7 @@
         <v>2.352</v>
       </c>
       <c r="E233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4413,7 +4413,7 @@
         <v>2.682</v>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -4430,7 +4430,7 @@
         <v>2.942</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -4447,7 +4447,7 @@
         <v>2.278</v>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4464,7 +4464,7 @@
         <v>1.91</v>
       </c>
       <c r="E237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4481,7 +4481,7 @@
         <v>2.682</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -4498,7 +4498,7 @@
         <v>2.608</v>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -4515,7 +4515,7 @@
         <v>2.5</v>
       </c>
       <c r="E240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4532,7 +4532,7 @@
         <v>2.352</v>
       </c>
       <c r="E241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4549,7 +4549,7 @@
         <v>3.09</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -4566,7 +4566,7 @@
         <v>2.352</v>
       </c>
       <c r="E243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -4583,7 +4583,7 @@
         <v>3.09</v>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -4600,7 +4600,7 @@
         <v>2.938</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -4617,7 +4617,7 @@
         <v>2.426</v>
       </c>
       <c r="E246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4634,7 +4634,7 @@
         <v>2.608</v>
       </c>
       <c r="E247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -4651,7 +4651,7 @@
         <v>2.5</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -4668,7 +4668,7 @@
         <v>3.42</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4685,7 +4685,7 @@
         <v>2.682</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -4702,7 +4702,7 @@
         <v>2.756</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -4719,7 +4719,7 @@
         <v>2.5</v>
       </c>
       <c r="E252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -4736,7 +4736,7 @@
         <v>2.5</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -4753,7 +4753,7 @@
         <v>2.5</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -4770,7 +4770,7 @@
         <v>3.528</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -4787,7 +4787,7 @@
         <v>2.426</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -4804,7 +4804,7 @@
         <v>2.608</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -4821,7 +4821,7 @@
         <v>2.682</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -4838,7 +4838,7 @@
         <v>3.75</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -4855,7 +4855,7 @@
         <v>2.938</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -4872,7 +4872,7 @@
         <v>2.608</v>
       </c>
       <c r="E261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -4889,7 +4889,7 @@
         <v>2.426</v>
       </c>
       <c r="E262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4906,7 +4906,7 @@
         <v>2.352</v>
       </c>
       <c r="E263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -4923,7 +4923,7 @@
         <v>2.682</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -4940,7 +4940,7 @@
         <v>2.5</v>
       </c>
       <c r="E265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -4957,7 +4957,7 @@
         <v>2.5</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -4974,7 +4974,7 @@
         <v>2.5</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -4991,7 +4991,7 @@
         <v>3.198</v>
       </c>
       <c r="E268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -5008,7 +5008,7 @@
         <v>2.426</v>
       </c>
       <c r="E269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5025,7 +5025,7 @@
         <v>2.278</v>
       </c>
       <c r="E270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5042,7 +5042,7 @@
         <v>2.83</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -5059,7 +5059,7 @@
         <v>2.426</v>
       </c>
       <c r="E272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5076,7 +5076,7 @@
         <v>2.756</v>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -5093,7 +5093,7 @@
         <v>2.426</v>
       </c>
       <c r="E274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -5110,7 +5110,7 @@
         <v>2.352</v>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -5127,7 +5127,7 @@
         <v>2.5</v>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -5144,7 +5144,7 @@
         <v>2.5</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -5161,7 +5161,7 @@
         <v>2.938</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -5178,7 +5178,7 @@
         <v>3.602</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -5195,7 +5195,7 @@
         <v>2.352</v>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -5212,7 +5212,7 @@
         <v>2.5</v>
       </c>
       <c r="E281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -5229,7 +5229,7 @@
         <v>2.756</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -5246,7 +5246,7 @@
         <v>2.938</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -5263,7 +5263,7 @@
         <v>2.938</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5280,7 +5280,7 @@
         <v>2.682</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -5297,7 +5297,7 @@
         <v>2.5</v>
       </c>
       <c r="E286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5314,7 +5314,7 @@
         <v>2.5</v>
       </c>
       <c r="E287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -5331,7 +5331,7 @@
         <v>2.5</v>
       </c>
       <c r="E288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -5348,7 +5348,7 @@
         <v>2.5</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -5365,7 +5365,7 @@
         <v>3.012</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -5382,7 +5382,7 @@
         <v>2.682</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -5399,7 +5399,7 @@
         <v>2.938</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -5416,7 +5416,7 @@
         <v>3.346</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -5433,7 +5433,7 @@
         <v>2.5</v>
       </c>
       <c r="E294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -5450,7 +5450,7 @@
         <v>2.608</v>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -5467,7 +5467,7 @@
         <v>2.682</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -5484,7 +5484,7 @@
         <v>3.16</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -5501,7 +5501,7 @@
         <v>2.608</v>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -5518,7 +5518,7 @@
         <v>2.5</v>
       </c>
       <c r="E299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -5535,7 +5535,7 @@
         <v>2.352</v>
       </c>
       <c r="E300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -5552,7 +5552,7 @@
         <v>2.682</v>
       </c>
       <c r="E301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -5569,7 +5569,7 @@
         <v>2.682</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -5586,7 +5586,7 @@
         <v>3.342</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -5603,7 +5603,7 @@
         <v>2.5</v>
       </c>
       <c r="E304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -5620,7 +5620,7 @@
         <v>2.83</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -5637,7 +5637,7 @@
         <v>2.5</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -5654,7 +5654,7 @@
         <v>2.5</v>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -5671,7 +5671,7 @@
         <v>3.42</v>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -5688,7 +5688,7 @@
         <v>2.5</v>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -5705,7 +5705,7 @@
         <v>3.086</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -5722,7 +5722,7 @@
         <v>2.426</v>
       </c>
       <c r="E311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -5739,7 +5739,7 @@
         <v>2.5</v>
       </c>
       <c r="E312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -5756,7 +5756,7 @@
         <v>2.608</v>
       </c>
       <c r="E313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -5773,7 +5773,7 @@
         <v>2.5</v>
       </c>
       <c r="E314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -5790,7 +5790,7 @@
         <v>2.682</v>
       </c>
       <c r="E315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -5807,7 +5807,7 @@
         <v>2.5</v>
       </c>
       <c r="E316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -5824,7 +5824,7 @@
         <v>2.352</v>
       </c>
       <c r="E317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -5841,7 +5841,7 @@
         <v>3.012</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -5858,7 +5858,7 @@
         <v>2.608</v>
       </c>
       <c r="E319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -5875,7 +5875,7 @@
         <v>2.83</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -5892,7 +5892,7 @@
         <v>2.426</v>
       </c>
       <c r="E321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -5909,7 +5909,7 @@
         <v>2.938</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -5926,7 +5926,7 @@
         <v>2.83</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5943,7 +5943,7 @@
         <v>2.83</v>
       </c>
       <c r="E324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -5960,7 +5960,7 @@
         <v>2.608</v>
       </c>
       <c r="E325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -5977,7 +5977,7 @@
         <v>2.938</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5994,7 +5994,7 @@
         <v>2.426</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -6011,7 +6011,7 @@
         <v>2.83</v>
       </c>
       <c r="E328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -6028,7 +6028,7 @@
         <v>2.682</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -6045,7 +6045,7 @@
         <v>2.938</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -6062,7 +6062,7 @@
         <v>2.5</v>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -6079,7 +6079,7 @@
         <v>2.608</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -6096,7 +6096,7 @@
         <v>2.352</v>
       </c>
       <c r="E333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -6113,7 +6113,7 @@
         <v>2.83</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -6130,7 +6130,7 @@
         <v>2.682</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -6147,7 +6147,7 @@
         <v>2.756</v>
       </c>
       <c r="E336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -6164,7 +6164,7 @@
         <v>2.5</v>
       </c>
       <c r="E337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="E338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -6198,7 +6198,7 @@
         <v>2.5</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -6215,7 +6215,7 @@
         <v>2.608</v>
       </c>
       <c r="E340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -6232,7 +6232,7 @@
         <v>2.5</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -6249,7 +6249,7 @@
         <v>3.16</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -6266,7 +6266,7 @@
         <v>3.269</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -6283,7 +6283,7 @@
         <v>2.756</v>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -6300,7 +6300,7 @@
         <v>2.608</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -6317,7 +6317,7 @@
         <v>2.938</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -6334,7 +6334,7 @@
         <v>3.269</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -6351,7 +6351,7 @@
         <v>2.608</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -6368,7 +6368,7 @@
         <v>2.83</v>
       </c>
       <c r="E349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -6385,7 +6385,7 @@
         <v>2.682</v>
       </c>
       <c r="E350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -6402,7 +6402,7 @@
         <v>2.756</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -6419,7 +6419,7 @@
         <v>2.938</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -6436,7 +6436,7 @@
         <v>2.938</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -6453,7 +6453,7 @@
         <v>2.938</v>
       </c>
       <c r="E354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -6470,7 +6470,7 @@
         <v>2.608</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -6487,7 +6487,7 @@
         <v>3.012</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -6504,7 +6504,7 @@
         <v>2.756</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -6521,7 +6521,7 @@
         <v>2.83</v>
       </c>
       <c r="E358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -6538,7 +6538,7 @@
         <v>2.5</v>
       </c>
       <c r="E359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -6555,7 +6555,7 @@
         <v>2.352</v>
       </c>
       <c r="E360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -6572,7 +6572,7 @@
         <v>2.5</v>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -6589,7 +6589,7 @@
         <v>2.5</v>
       </c>
       <c r="E362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -6606,7 +6606,7 @@
         <v>2.682</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -6623,7 +6623,7 @@
         <v>2.938</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -6640,7 +6640,7 @@
         <v>3.269</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -6657,7 +6657,7 @@
         <v>2.756</v>
       </c>
       <c r="E366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -6674,7 +6674,7 @@
         <v>2.352</v>
       </c>
       <c r="E367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -6691,7 +6691,7 @@
         <v>2.352</v>
       </c>
       <c r="E368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -6708,7 +6708,7 @@
         <v>2.608</v>
       </c>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -6725,7 +6725,7 @@
         <v>2.682</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -6742,7 +6742,7 @@
         <v>2.5</v>
       </c>
       <c r="E371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -6759,7 +6759,7 @@
         <v>2.5</v>
       </c>
       <c r="E372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -6776,7 +6776,7 @@
         <v>2.608</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -6793,7 +6793,7 @@
         <v>2.83</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -6810,7 +6810,7 @@
         <v>2.756</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -6827,7 +6827,7 @@
         <v>3.012</v>
       </c>
       <c r="E376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -6844,7 +6844,7 @@
         <v>2.278</v>
       </c>
       <c r="E377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6861,7 +6861,7 @@
         <v>2.5</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -6878,7 +6878,7 @@
         <v>2.682</v>
       </c>
       <c r="E379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -6895,7 +6895,7 @@
         <v>2.756</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -6912,7 +6912,7 @@
         <v>2.352</v>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -6929,7 +6929,7 @@
         <v>2.83</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -6946,7 +6946,7 @@
         <v>2.5</v>
       </c>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -6963,7 +6963,7 @@
         <v>2.682</v>
       </c>
       <c r="E384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -6980,7 +6980,7 @@
         <v>2.83</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -6997,7 +6997,7 @@
         <v>2.938</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -7014,7 +7014,7 @@
         <v>2.83</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -7031,7 +7031,7 @@
         <v>2.352</v>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -7048,7 +7048,7 @@
         <v>2.608</v>
       </c>
       <c r="E389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -7065,7 +7065,7 @@
         <v>2.608</v>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -7082,7 +7082,7 @@
         <v>2.682</v>
       </c>
       <c r="E391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -7099,7 +7099,7 @@
         <v>2.682</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -7116,7 +7116,7 @@
         <v>2.352</v>
       </c>
       <c r="E393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -7133,7 +7133,7 @@
         <v>2.352</v>
       </c>
       <c r="E394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -7150,7 +7150,7 @@
         <v>2.352</v>
       </c>
       <c r="E395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7167,7 +7167,7 @@
         <v>2.5</v>
       </c>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -7184,7 +7184,7 @@
         <v>2.608</v>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -7201,7 +7201,7 @@
         <v>2.608</v>
       </c>
       <c r="E398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -7218,7 +7218,7 @@
         <v>2.5</v>
       </c>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -7235,7 +7235,7 @@
         <v>2.938</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -7252,7 +7252,7 @@
         <v>2.756</v>
       </c>
       <c r="E401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -7269,7 +7269,7 @@
         <v>2.682</v>
       </c>
       <c r="E402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -7286,7 +7286,7 @@
         <v>2.756</v>
       </c>
       <c r="E403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -7303,7 +7303,7 @@
         <v>2.426</v>
       </c>
       <c r="E404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -7320,7 +7320,7 @@
         <v>3.42</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -7337,7 +7337,7 @@
         <v>2.682</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -7354,7 +7354,7 @@
         <v>2.352</v>
       </c>
       <c r="E407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -7371,7 +7371,7 @@
         <v>2.5</v>
       </c>
       <c r="E408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -7388,7 +7388,7 @@
         <v>2.682</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -7405,7 +7405,7 @@
         <v>2.938</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -7422,7 +7422,7 @@
         <v>2.426</v>
       </c>
       <c r="E411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -7439,7 +7439,7 @@
         <v>2.938</v>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -7456,7 +7456,7 @@
         <v>2.756</v>
       </c>
       <c r="E413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -7473,7 +7473,7 @@
         <v>2.608</v>
       </c>
       <c r="E414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -7490,7 +7490,7 @@
         <v>2.756</v>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -7507,7 +7507,7 @@
         <v>2.426</v>
       </c>
       <c r="E416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -7524,7 +7524,7 @@
         <v>2.756</v>
       </c>
       <c r="E417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -7541,7 +7541,7 @@
         <v>3.086</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -7558,7 +7558,7 @@
         <v>2.608</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -7575,7 +7575,7 @@
         <v>2.608</v>
       </c>
       <c r="E420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -7592,7 +7592,7 @@
         <v>2.83</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -7609,7 +7609,7 @@
         <v>2.5</v>
       </c>
       <c r="E422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7626,7 +7626,7 @@
         <v>2.682</v>
       </c>
       <c r="E423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -7643,7 +7643,7 @@
         <v>2.756</v>
       </c>
       <c r="E424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -7660,7 +7660,7 @@
         <v>2.5</v>
       </c>
       <c r="E425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
@@ -7677,7 +7677,7 @@
         <v>2.5</v>
       </c>
       <c r="E426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -7694,7 +7694,7 @@
         <v>2.682</v>
       </c>
       <c r="E427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -7711,7 +7711,7 @@
         <v>2.5</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
@@ -7728,7 +7728,7 @@
         <v>2.608</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -7745,7 +7745,7 @@
         <v>2.352</v>
       </c>
       <c r="E430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -7762,7 +7762,7 @@
         <v>2.608</v>
       </c>
       <c r="E431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -7779,7 +7779,7 @@
         <v>2.5</v>
       </c>
       <c r="E432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -7796,7 +7796,7 @@
         <v>2.756</v>
       </c>
       <c r="E433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -7813,7 +7813,7 @@
         <v>2.426</v>
       </c>
       <c r="E434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435">
@@ -7830,7 +7830,7 @@
         <v>2.5</v>
       </c>
       <c r="E435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
@@ -7847,7 +7847,7 @@
         <v>2.5</v>
       </c>
       <c r="E436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -7864,7 +7864,7 @@
         <v>2.426</v>
       </c>
       <c r="E437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -7881,7 +7881,7 @@
         <v>2.608</v>
       </c>
       <c r="E438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -7898,7 +7898,7 @@
         <v>2.426</v>
       </c>
       <c r="E439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -7915,7 +7915,7 @@
         <v>2.756</v>
       </c>
       <c r="E440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441">
@@ -7932,7 +7932,7 @@
         <v>2.608</v>
       </c>
       <c r="E441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
@@ -7949,7 +7949,7 @@
         <v>2.756</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -7966,7 +7966,7 @@
         <v>2.756</v>
       </c>
       <c r="E443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -7983,7 +7983,7 @@
         <v>2.682</v>
       </c>
       <c r="E444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -8000,7 +8000,7 @@
         <v>2.608</v>
       </c>
       <c r="E445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -8017,7 +8017,7 @@
         <v>2.5</v>
       </c>
       <c r="E446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -8034,7 +8034,7 @@
         <v>2.83</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -8051,7 +8051,7 @@
         <v>2.608</v>
       </c>
       <c r="E448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -8068,7 +8068,7 @@
         <v>3.086</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -8085,7 +8085,7 @@
         <v>2.5</v>
       </c>
       <c r="E450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -8102,7 +8102,7 @@
         <v>2.352</v>
       </c>
       <c r="E451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -8119,7 +8119,7 @@
         <v>2.608</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -8136,7 +8136,7 @@
         <v>2.5</v>
       </c>
       <c r="E453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -8153,7 +8153,7 @@
         <v>2.426</v>
       </c>
       <c r="E454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -8170,7 +8170,7 @@
         <v>2.83</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -8187,7 +8187,7 @@
         <v>2.83</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -8204,7 +8204,7 @@
         <v>2.426</v>
       </c>
       <c r="E457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -8221,7 +8221,7 @@
         <v>3.012</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -8238,7 +8238,7 @@
         <v>2.426</v>
       </c>
       <c r="E459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -8255,7 +8255,7 @@
         <v>2.426</v>
       </c>
       <c r="E460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -8272,7 +8272,7 @@
         <v>2.682</v>
       </c>
       <c r="E461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -8289,7 +8289,7 @@
         <v>2.352</v>
       </c>
       <c r="E462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -8306,7 +8306,7 @@
         <v>2.5</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -8323,7 +8323,7 @@
         <v>3.012</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -8340,7 +8340,7 @@
         <v>2.756</v>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -8357,7 +8357,7 @@
         <v>2.426</v>
       </c>
       <c r="E466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467">
@@ -8374,7 +8374,7 @@
         <v>2.83</v>
       </c>
       <c r="E467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -8391,7 +8391,7 @@
         <v>2.682</v>
       </c>
       <c r="E468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469">
@@ -8408,7 +8408,7 @@
         <v>2.5</v>
       </c>
       <c r="E469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -8425,7 +8425,7 @@
         <v>2.426</v>
       </c>
       <c r="E470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -8442,7 +8442,7 @@
         <v>2.5</v>
       </c>
       <c r="E471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -8459,7 +8459,7 @@
         <v>2.83</v>
       </c>
       <c r="E472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -8476,7 +8476,7 @@
         <v>2.5</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -8493,7 +8493,7 @@
         <v>2.682</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -8510,7 +8510,7 @@
         <v>2.426</v>
       </c>
       <c r="E475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -8527,7 +8527,7 @@
         <v>2.608</v>
       </c>
       <c r="E476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
